--- a/LibraryManager/data/books.xlsx
+++ b/LibraryManager/data/books.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t>ISBN</t>
   </si>
@@ -1868,6 +1868,15 @@
   </si>
   <si>
     <t>Fantazy</t>
+  </si>
+  <si>
+    <t>7878737878278</t>
+  </si>
+  <si>
+    <t>Castle of glow</t>
+  </si>
+  <si>
+    <t>Ariana Hustlie</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10272,6 +10281,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E403" s="0">
+        <v>2001</v>
+      </c>
+      <c r="F403" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
